--- a/data/trans_dic/P55$familiarvive-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1680542641872921</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08490458051030496</v>
+        <v>0.08490458051030499</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3234745884072828</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1060740831029961</v>
+        <v>0.1017822528746693</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1176713202681665</v>
+        <v>0.1157019300099622</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1020711753319482</v>
+        <v>0.1041542265254014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04982540516762975</v>
+        <v>0.0486484091791909</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2581992948336544</v>
+        <v>0.2607828620952934</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.238520355021857</v>
+        <v>0.2418712079837005</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2165409183714906</v>
+        <v>0.2194493285314333</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1753197517277534</v>
+        <v>0.1716017259287664</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2204551726663742</v>
+        <v>0.225029582666141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2148004612120912</v>
+        <v>0.2120238014201298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1968789578943829</v>
+        <v>0.1955473225961449</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1461055514995187</v>
+        <v>0.1458951365390471</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2377290865350314</v>
+        <v>0.2409086455513332</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.263594841818474</v>
+        <v>0.2889480205748083</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2492643861961783</v>
+        <v>0.251540947157421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1388489426662013</v>
+        <v>0.1431102140151033</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4005918891377385</v>
+        <v>0.3960011917150961</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.360516805420934</v>
+        <v>0.3625060980039762</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.356533830571457</v>
+        <v>0.361000115051745</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2498912770938659</v>
+        <v>0.2526857209090129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3257512492274195</v>
+        <v>0.3236049961170014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3076747250321987</v>
+        <v>0.3085891516660182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3083828549579751</v>
+        <v>0.3015262285302659</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2044417791756474</v>
+        <v>0.2078865625762028</v>
       </c>
     </row>
     <row r="7">
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05336214232562608</v>
+        <v>0.05124096663159989</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03302516157492875</v>
+        <v>0.03377718553060716</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08233409822683779</v>
+        <v>0.08218924972585029</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07557745937380762</v>
+        <v>0.07796603343070854</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07299662064839102</v>
+        <v>0.09913261985679395</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.114902139702931</v>
+        <v>0.1082464442884992</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08909054726208572</v>
+        <v>0.0843663605554115</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04309619612165205</v>
+        <v>0.04116596192901054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1223196048228676</v>
+        <v>0.1195805399291169</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.109955545584474</v>
+        <v>0.1117547907249367</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1019850351188423</v>
+        <v>0.1026600073568134</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2844172276936015</v>
+        <v>0.2767729329478285</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4360614829158727</v>
+        <v>0.4489600223594568</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3146463542529153</v>
+        <v>0.3326593301787491</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2546035403540155</v>
+        <v>0.2490615590207193</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5792788080882381</v>
+        <v>0.5624238295397966</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4911821954771146</v>
+        <v>0.5107344079421962</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3938648753095618</v>
+        <v>0.3661648109957651</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2226883468958761</v>
+        <v>0.2230682703970164</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3560938896030669</v>
+        <v>0.3596053740900929</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4073618780424763</v>
+        <v>0.3971731798540008</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3204829443552305</v>
+        <v>0.3169843529908572</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2047557195141812</v>
+        <v>0.2056554423332613</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09690900512510836</v>
+        <v>0.09690900512510835</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.1435756758325118</v>
+        <v>0.1398080789719444</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.09773629208222211</v>
+        <v>0.0980464952300628</v>
       </c>
     </row>
     <row r="12">
@@ -1014,12 +1014,12 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6587520373236672</v>
+        <v>0.6522751735443002</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.3008230733761877</v>
+        <v>0.2692246903732782</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
@@ -1027,17 +1027,17 @@
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.4561847800986885</v>
+        <v>0.4700010960260272</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3117069524066503</v>
+        <v>0.3540894823120816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6588685726105373</v>
+        <v>0.665049920698812</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.3165777067808782</v>
+        <v>0.3242535903318922</v>
       </c>
     </row>
     <row r="13">
@@ -1096,40 +1096,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07293380185564488</v>
+        <v>0.07108324301121091</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2361717914172022</v>
+        <v>0.2366728335757503</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2071271130239427</v>
+        <v>0.21339108741789</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1697208438466374</v>
+        <v>0.1678442833160948</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2154951059224789</v>
+        <v>0.2104653967723684</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1811364473924327</v>
+        <v>0.1859656117652191</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1453719887187049</v>
+        <v>0.1457564591245422</v>
       </c>
     </row>
     <row r="15">
@@ -1140,40 +1140,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.149767453580044</v>
+        <v>0.1508636149566501</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.353518218943435</v>
+        <v>0.3551586104220925</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3252089568597847</v>
+        <v>0.3312471231496483</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2334154175858894</v>
+        <v>0.23573159255773</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3054589030766202</v>
+        <v>0.3010585457044427</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2778226905414137</v>
+        <v>0.277737734022959</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1971739839052619</v>
+        <v>0.196549179283503</v>
       </c>
     </row>
     <row r="16">
@@ -1443,40 +1443,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10928</v>
+        <v>10486</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14606</v>
+        <v>14362</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9540</v>
+        <v>9735</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5170</v>
+        <v>5048</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>53151</v>
+        <v>53682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>59831</v>
+        <v>60672</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>45162</v>
+        <v>45769</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48531</v>
+        <v>47502</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>68094</v>
+        <v>69506</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>80544</v>
+        <v>79502</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>59462</v>
+        <v>59060</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55605</v>
+        <v>55525</v>
       </c>
     </row>
     <row r="7">
@@ -1487,40 +1487,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24492</v>
+        <v>24820</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>32719</v>
+        <v>35866</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23297</v>
+        <v>23510</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14408</v>
+        <v>14851</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>82462</v>
+        <v>81517</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>90433</v>
+        <v>90932</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>74359</v>
+        <v>75291</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>69173</v>
+        <v>69947</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>100617</v>
+        <v>99954</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115368</v>
+        <v>115711</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>93139</v>
+        <v>91068</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77807</v>
+        <v>79118</v>
       </c>
     </row>
     <row r="8">
@@ -1626,37 +1626,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1068</v>
+        <v>1026</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>755</v>
+        <v>773</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3896</v>
+        <v>3889</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1544</v>
+        <v>2097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5980</v>
+        <v>5633</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5582</v>
+        <v>5286</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1193</v>
+        <v>1140</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>5036</v>
+        <v>4923</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>8238</v>
+        <v>8372</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11216</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="11">
@@ -1667,40 +1667,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4035</v>
+        <v>3927</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8728</v>
+        <v>8986</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7198</v>
+        <v>7610</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12048</v>
+        <v>11786</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7820</v>
+        <v>7592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10390</v>
+        <v>10804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>20497</v>
+        <v>19055</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13952</v>
+        <v>13976</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9859</v>
+        <v>9956</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>16770</v>
+        <v>16351</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>24010</v>
+        <v>23748</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>22518</v>
+        <v>22617</v>
       </c>
     </row>
     <row r="12">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>2260</v>
+        <v>2201</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>3159</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="15">
@@ -1837,12 +1837,12 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6169</v>
+        <v>6109</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>4986</v>
+        <v>4462</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
@@ -1850,17 +1850,17 @@
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>7182</v>
+        <v>7400</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6526</v>
+        <v>7414</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4251</v>
+        <v>4291</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>10231</v>
+        <v>10479</v>
       </c>
     </row>
     <row r="16">
@@ -1963,40 +1963,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12414</v>
+        <v>11535</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12229</v>
+        <v>11918</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65283</v>
+        <v>65421</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>55378</v>
+        <v>57053</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60287</v>
+        <v>59620</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>91066</v>
+        <v>88940</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>70430</v>
+        <v>72307</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>76012</v>
+        <v>76213</v>
       </c>
     </row>
     <row r="19">
@@ -2007,40 +2007,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>25111</v>
+        <v>25295</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>97720</v>
+        <v>98173</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>86949</v>
+        <v>88563</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82912</v>
+        <v>83734</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>129083</v>
+        <v>127224</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>108023</v>
+        <v>107990</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>103098</v>
+        <v>102771</v>
       </c>
     </row>
     <row r="20">
